--- a/biology/Botanique/Gluta/Gluta.xlsx
+++ b/biology/Botanique/Gluta/Gluta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Gluta appartient à la famille des Anacardiaceae et regroupe des espèces trouvées à Madagascar, en Assam, et de l’Asie du Sud-Est jusqu’en Nouvelle-Guinée.
-Ce genre a été défini par Carl Linné en 1771 dans Mantissa Plantarum 2: 293[1], avec pour spécimen type Gluta benghas.
-En 1978, Ding Hou propose de ramener l’ensemble des espèces du genre Melanorrhoea sous le genre de Gluta (famille des Anacardiaceae)[2].
-Le nouveau genre élargi contient environ 30 espèces réparties à Madagascar, Inde (Assam), Myanmar, Thaïlande, Cambodge, Laos, Vietnam, Malaisie, Chine (Guangxi), Indonésie (Sumatra, Kalimantan, Sulawesi) et Nouvelle Guinée[3]. Leur sève blanche est allergisante.
+Ce genre a été défini par Carl Linné en 1771 dans Mantissa Plantarum 2: 293, avec pour spécimen type Gluta benghas.
+En 1978, Ding Hou propose de ramener l’ensemble des espèces du genre Melanorrhoea sous le genre de Gluta (famille des Anacardiaceae).
+Le nouveau genre élargi contient environ 30 espèces réparties à Madagascar, Inde (Assam), Myanmar, Thaïlande, Cambodge, Laos, Vietnam, Malaisie, Chine (Guangxi), Indonésie (Sumatra, Kalimantan, Sulawesi) et Nouvelle Guinée. Leur sève blanche est allergisante.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En juillet 2020, Plants of the World online acceptait 34 espèces[3]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juillet 2020, Plants of the World online acceptait 34 espèces:
 </t>
         </is>
       </c>
